--- a/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208AF305-C758-4931-A311-AB22A231CD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915F95F0-AE56-4B4A-9106-A102966DAC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Environment</t>
   </si>
@@ -114,7 +114,10 @@
     <t>To approve</t>
   </si>
   <si>
-    <t>E6</t>
+    <t>OFFUS</t>
+  </si>
+  <si>
+    <t>E7</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,13 +582,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>

--- a/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915F95F0-AE56-4B4A-9106-A102966DAC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF74A1-5617-4511-A4EA-DBAA0C9E212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Environment</t>
   </si>
@@ -60,9 +60,6 @@
     <t>MakerRemark</t>
   </si>
   <si>
-    <t>BBPS2.0</t>
-  </si>
-  <si>
     <t>ONUS</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Service Configuration</t>
   </si>
   <si>
-    <t>ERR023</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -93,31 +87,22 @@
     <t>CheckerRemarks</t>
   </si>
   <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Reject to Do</t>
-  </si>
-  <si>
     <t>AIRTEL</t>
   </si>
   <si>
-    <t>BFR004</t>
-  </si>
-  <si>
-    <t>E1</t>
+    <t>GooglePay</t>
   </si>
   <si>
     <t>Approve</t>
   </si>
   <si>
-    <t>To approve</t>
-  </si>
-  <si>
-    <t>OFFUS</t>
-  </si>
-  <si>
-    <t>E7</t>
+    <t>Approval to do</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>E24</t>
   </si>
 </sst>
 </file>
@@ -468,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,92 +509,51 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF74A1-5617-4511-A4EA-DBAA0C9E212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3596D0-B323-4FAD-9091-3552A223C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Environment</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>E24</t>
+  </si>
+  <si>
+    <t>Added..</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E29</t>
   </si>
 </sst>
 </file>
@@ -453,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,12 +556,94 @@
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3596D0-B323-4FAD-9091-3552A223C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47734B-A5FD-45FE-A3F2-01D7DCC02D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Environment</t>
   </si>
@@ -60,9 +60,6 @@
     <t>MakerRemark</t>
   </si>
   <si>
-    <t>ONUS</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -87,31 +84,37 @@
     <t>CheckerRemarks</t>
   </si>
   <si>
-    <t>AIRTEL</t>
-  </si>
-  <si>
     <t>GooglePay</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>OFFUS</t>
+  </si>
+  <si>
+    <t>NPCI</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Reject to do</t>
+  </si>
+  <si>
+    <t>E40</t>
+  </si>
+  <si>
     <t>Approve</t>
   </si>
   <si>
-    <t>Approval to do</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>E24</t>
+    <t>Approve to do</t>
   </si>
   <si>
     <t>Added..</t>
   </si>
   <si>
-    <t>E26</t>
-  </si>
-  <si>
-    <t>E29</t>
+    <t>E46</t>
   </si>
 </sst>
 </file>
@@ -464,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,133 +521,133 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eeft-my.sharepoint.com/personal/sdhara_euronetworldwide_com/Documents/Documents/New_Auto_WorkSpace/Framework_BundleUpProjects-main/src/main/resources/FetchData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B47734B-A5FD-45FE-A3F2-01D7DCC02D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{4B47734B-A5FD-45FE-A3F2-01D7DCC02D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046813BA-697C-4AEA-A274-21B77A97394E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>Environment</t>
   </si>
@@ -63,9 +63,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>EN Failed</t>
-  </si>
-  <si>
     <t>Added</t>
   </si>
   <si>
@@ -84,37 +81,43 @@
     <t>CheckerRemarks</t>
   </si>
   <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Approve to do</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Euronet General error</t>
+  </si>
+  <si>
+    <t>Missing Mandarory Paramters in Operator Request</t>
+  </si>
+  <si>
+    <t>Invalid Subscription details</t>
+  </si>
+  <si>
+    <t>ONUS</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
     <t>GooglePay</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>OFFUS</t>
-  </si>
-  <si>
-    <t>NPCI</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Reject to do</t>
-  </si>
-  <si>
-    <t>E40</t>
-  </si>
-  <si>
-    <t>Approve</t>
-  </si>
-  <si>
-    <t>Approve to do</t>
-  </si>
-  <si>
-    <t>Added..</t>
-  </si>
-  <si>
-    <t>E46</t>
+    <t>ME</t>
   </si>
 </sst>
 </file>
@@ -465,28 +468,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="26.90625" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="49.1796875" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="12" max="12" width="20.453125" customWidth="1"/>
+    <col min="13" max="13" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,137 +525,204 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal content</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_SpRspCodeMapping_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eeft-my.sharepoint.com/personal/sdhara_euronetworldwide_com/Documents/Documents/New_Auto_WorkSpace/Framework_BundleUpProjects-main/src/main/resources/FetchData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{4B47734B-A5FD-45FE-A3F2-01D7DCC02D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046813BA-697C-4AEA-A274-21B77A97394E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDED8C2C-AEF6-4861-8EB5-0E48D8657F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>Environment</t>
   </si>
@@ -93,9 +93,6 @@
     <t>MP</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -114,10 +111,31 @@
     <t>Airtel</t>
   </si>
   <si>
-    <t>GooglePay</t>
-  </si>
-  <si>
-    <t>ME</t>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>ERX01</t>
+  </si>
+  <si>
+    <t>ERX02</t>
+  </si>
+  <si>
+    <t>ERX03</t>
+  </si>
+  <si>
+    <t>ERX04</t>
+  </si>
+  <si>
+    <t>ERX05</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -470,27 +488,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="26.90625" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="49.1796875" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" customWidth="1"/>
-    <col min="12" max="12" width="20.453125" customWidth="1"/>
-    <col min="13" max="13" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="49.21875" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,9 +549,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -542,20 +560,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>15</v>
@@ -570,9 +590,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -581,10 +601,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>30</v>
@@ -596,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>15</v>
@@ -611,9 +631,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -622,18 +642,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>15</v>
@@ -648,9 +672,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -659,21 +683,23 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
@@ -687,9 +713,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -698,19 +724,29 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
